--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_15_26.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_15_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1372682.454686348</v>
+        <v>1370145.030142681</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9988209.873722259</v>
+        <v>9988209.873722252</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -1151,10 +1151,10 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="J8" t="n">
-        <v>3.359816860132442</v>
+        <v>3.3598168601333</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>2.696604229166133</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>2.696604229166991</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1224,46 +1224,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>6.056421089299432</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1303,13 +1303,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056421089299432</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>338.3917250821579</v>
+        <v>108.589254444147</v>
       </c>
       <c r="C11" t="n">
         <v>320.9307751896849</v>
       </c>
       <c r="D11" t="n">
-        <v>310.3409250393603</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>337.5882534909391</v>
@@ -1382,7 +1382,7 @@
         <v>362.5339291603888</v>
       </c>
       <c r="G11" t="n">
-        <v>149.1035089184206</v>
+        <v>366.5796090721308</v>
       </c>
       <c r="H11" t="n">
         <v>250.2656478059978</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>64.84564520685319</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>159.5758535582975</v>
       </c>
       <c r="U11" t="n">
-        <v>206.6530553775793</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>283.4101418888122</v>
+        <v>283.4101418888123</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>304.8988521360903</v>
       </c>
       <c r="X11" t="n">
         <v>325.3889840971464</v>
       </c>
       <c r="Y11" t="n">
-        <v>341.8958220747309</v>
+        <v>341.895822074731</v>
       </c>
     </row>
     <row r="12">
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>135.4898636006146</v>
+        <v>135.4898636006147</v>
       </c>
       <c r="C13" t="n">
-        <v>122.9047045173051</v>
+        <v>122.9047045173052</v>
       </c>
       <c r="D13" t="n">
         <v>104.2733564368897</v>
@@ -1537,16 +1537,16 @@
         <v>102.0918460652465</v>
       </c>
       <c r="F13" t="n">
-        <v>101.0789314416085</v>
+        <v>101.0789314416086</v>
       </c>
       <c r="G13" t="n">
-        <v>121.6836916777055</v>
+        <v>121.6836916777056</v>
       </c>
       <c r="H13" t="n">
         <v>100.4128983329981</v>
       </c>
       <c r="I13" t="n">
-        <v>52.0103038285154</v>
+        <v>52.01030382851545</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,22 +1573,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>44.59003608872463</v>
+        <v>44.59003608872469</v>
       </c>
       <c r="S13" t="n">
-        <v>145.4269087501192</v>
+        <v>82.65360464557494</v>
       </c>
       <c r="T13" t="n">
-        <v>175.2068326948465</v>
+        <v>175.2068326948466</v>
       </c>
       <c r="U13" t="n">
         <v>241.8697216242902</v>
       </c>
       <c r="V13" t="n">
-        <v>145.0222226379623</v>
+        <v>207.7955267425054</v>
       </c>
       <c r="W13" t="n">
-        <v>242.1808817552683</v>
+        <v>242.1808817552684</v>
       </c>
       <c r="X13" t="n">
         <v>181.3675388077145</v>
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>338.391725082158</v>
       </c>
       <c r="C14" t="n">
-        <v>320.9307751896849</v>
+        <v>320.930775189685</v>
       </c>
       <c r="D14" t="n">
-        <v>310.3409250393603</v>
+        <v>310.3409250393604</v>
       </c>
       <c r="E14" t="n">
-        <v>337.5882534909391</v>
+        <v>337.5882534909392</v>
       </c>
       <c r="F14" t="n">
-        <v>362.5339291603888</v>
+        <v>362.5339291603889</v>
       </c>
       <c r="G14" t="n">
-        <v>366.5796090721308</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>250.2656478059978</v>
+        <v>250.2656478059979</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>64.84564520685313</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>159.5758535582974</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>123.6373135019319</v>
+        <v>206.6530553775794</v>
       </c>
       <c r="V14" t="n">
-        <v>283.4101418888122</v>
+        <v>127.6147986711408</v>
       </c>
       <c r="W14" t="n">
-        <v>304.8988521360903</v>
+        <v>304.8988521360905</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>325.3889840971465</v>
       </c>
       <c r="Y14" t="n">
-        <v>341.8958220747309</v>
+        <v>341.895822074731</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>135.4898636006146</v>
+        <v>135.4898636006147</v>
       </c>
       <c r="C16" t="n">
-        <v>122.9047045173051</v>
+        <v>122.9047045173052</v>
       </c>
       <c r="D16" t="n">
-        <v>104.2733564368897</v>
+        <v>104.2733564368898</v>
       </c>
       <c r="E16" t="n">
-        <v>102.0918460652465</v>
+        <v>102.0918460652466</v>
       </c>
       <c r="F16" t="n">
-        <v>101.0789314416085</v>
+        <v>101.0789314416087</v>
       </c>
       <c r="G16" t="n">
-        <v>103.500423661887</v>
+        <v>121.6836916777056</v>
       </c>
       <c r="H16" t="n">
-        <v>100.4128983329981</v>
+        <v>100.4128983329982</v>
       </c>
       <c r="I16" t="n">
-        <v>52.0103038285154</v>
+        <v>52.01030382851551</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>44.59003608872474</v>
       </c>
       <c r="S16" t="n">
-        <v>145.4269087501192</v>
+        <v>145.4269087501193</v>
       </c>
       <c r="T16" t="n">
-        <v>175.2068326948465</v>
+        <v>175.2068326948466</v>
       </c>
       <c r="U16" t="n">
-        <v>241.8697216242902</v>
+        <v>241.8697216242903</v>
       </c>
       <c r="V16" t="n">
-        <v>207.7955267425053</v>
+        <v>207.7955267425054</v>
       </c>
       <c r="W16" t="n">
-        <v>242.1808817552683</v>
+        <v>242.1808817552684</v>
       </c>
       <c r="X16" t="n">
-        <v>181.3675388077145</v>
+        <v>118.5942347031688</v>
       </c>
       <c r="Y16" t="n">
-        <v>174.2425367707721</v>
+        <v>174.2425367707722</v>
       </c>
     </row>
     <row r="17">
@@ -1844,10 +1844,10 @@
         <v>335.758705044888</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D17" t="n">
-        <v>307.7079050020904</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>334.9552334536692</v>
@@ -1859,7 +1859,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H17" t="n">
-        <v>247.6326277687279</v>
+        <v>168.162326297522</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T17" t="n">
-        <v>104.56922017773</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U17" t="n">
         <v>204.0200353403094</v>
@@ -1907,10 +1907,10 @@
         <v>302.2658320988205</v>
       </c>
       <c r="X17" t="n">
-        <v>322.7559640598765</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="18">
@@ -2008,19 +2008,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E19" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F19" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G19" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H19" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I19" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2078,19 +2078,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>335.758705044888</v>
+        <v>199.7651000236988</v>
       </c>
       <c r="C20" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D20" t="n">
-        <v>307.7079050020904</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G20" t="n">
         <v>363.9465890348609</v>
@@ -2129,16 +2129,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>62.2126251695833</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>87.68669396251575</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U20" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W20" t="n">
         <v>302.2658320988205</v>
@@ -2245,19 +2245,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E22" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F22" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G22" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H22" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I22" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T23" t="n">
         <v>156.9428335210276</v>
@@ -2482,19 +2482,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E25" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F25" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G25" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H25" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I25" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S25" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T25" t="n">
         <v>172.5738126575766</v>
@@ -2552,25 +2552,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>337.6647449244904</v>
+        <v>337.6647449244905</v>
       </c>
       <c r="C26" t="n">
-        <v>320.2037950320174</v>
+        <v>320.2037950320175</v>
       </c>
       <c r="D26" t="n">
-        <v>309.6139448816928</v>
+        <v>309.6139448816929</v>
       </c>
       <c r="E26" t="n">
-        <v>336.8612733332716</v>
+        <v>336.8612733332717</v>
       </c>
       <c r="F26" t="n">
-        <v>361.8069490027213</v>
+        <v>361.8069490027214</v>
       </c>
       <c r="G26" t="n">
-        <v>365.8526289144633</v>
+        <v>365.8526289144634</v>
       </c>
       <c r="H26" t="n">
-        <v>249.5386676483303</v>
+        <v>249.5386676483304</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>64.11866504918569</v>
+        <v>64.11866504918575</v>
       </c>
       <c r="T26" t="n">
-        <v>158.84887340063</v>
+        <v>158.8488734006301</v>
       </c>
       <c r="U26" t="n">
-        <v>205.9260752199118</v>
+        <v>205.9260752199119</v>
       </c>
       <c r="V26" t="n">
         <v>282.6831617311448</v>
@@ -2618,10 +2618,10 @@
         <v>304.1718719784229</v>
       </c>
       <c r="X26" t="n">
-        <v>324.6620039394789</v>
+        <v>324.662003939479</v>
       </c>
       <c r="Y26" t="n">
-        <v>341.1688419170634</v>
+        <v>341.1688419170635</v>
       </c>
     </row>
     <row r="27">
@@ -2713,25 +2713,25 @@
         <v>134.7628834429472</v>
       </c>
       <c r="C28" t="n">
-        <v>122.1777243596377</v>
+        <v>122.1777243596378</v>
       </c>
       <c r="D28" t="n">
-        <v>103.5463762792222</v>
+        <v>103.5463762792223</v>
       </c>
       <c r="E28" t="n">
-        <v>55.92335034595393</v>
+        <v>101.3648659075791</v>
       </c>
       <c r="F28" t="n">
-        <v>100.3519512839411</v>
+        <v>100.3519512839412</v>
       </c>
       <c r="G28" t="n">
         <v>120.9567115200381</v>
       </c>
       <c r="H28" t="n">
-        <v>99.68591817533064</v>
+        <v>54.24440261370385</v>
       </c>
       <c r="I28" t="n">
-        <v>51.28332367084796</v>
+        <v>51.28332367084801</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>43.86305593105719</v>
+        <v>43.86305593105725</v>
       </c>
       <c r="S28" t="n">
         <v>144.6999285924518</v>
@@ -2767,7 +2767,7 @@
         <v>174.4798525371791</v>
       </c>
       <c r="U28" t="n">
-        <v>241.1427414666227</v>
+        <v>241.1427414666228</v>
       </c>
       <c r="V28" t="n">
         <v>207.0685465848379</v>
@@ -2776,10 +2776,10 @@
         <v>241.4539015976009</v>
       </c>
       <c r="X28" t="n">
-        <v>180.640558650047</v>
+        <v>180.6405586500471</v>
       </c>
       <c r="Y28" t="n">
-        <v>173.5155566131046</v>
+        <v>173.5155566131047</v>
       </c>
     </row>
     <row r="29">
@@ -2947,13 +2947,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>134.7628834429472</v>
+        <v>89.32136788132208</v>
       </c>
       <c r="C31" t="n">
         <v>122.1777243596377</v>
       </c>
       <c r="D31" t="n">
-        <v>101.967916648654</v>
+        <v>103.5463762792222</v>
       </c>
       <c r="E31" t="n">
         <v>101.364865907579</v>
@@ -2968,7 +2968,7 @@
         <v>99.68591817533064</v>
       </c>
       <c r="I31" t="n">
-        <v>51.28332367084795</v>
+        <v>51.28332367084796</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>43.86305593105719</v>
       </c>
       <c r="S31" t="n">
         <v>144.6999285924518</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958325</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
@@ -3193,19 +3193,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433867</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G34" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572821</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.21262516958328</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T35" t="n">
         <v>156.9428335210276</v>
@@ -3430,19 +3430,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E37" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F37" t="n">
-        <v>98.44591140433869</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G37" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H37" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3500,16 +3500,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>335.7587050448881</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C38" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D38" t="n">
-        <v>307.7079050020905</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E38" t="n">
-        <v>334.9552334536693</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F38" t="n">
         <v>359.9009091231189</v>
@@ -3518,7 +3518,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H38" t="n">
-        <v>247.632627768728</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,16 +3551,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.21262516958335</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T38" t="n">
         <v>156.9428335210276</v>
       </c>
       <c r="U38" t="n">
-        <v>204.0200353403095</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V38" t="n">
-        <v>280.7771218515424</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W38" t="n">
         <v>302.2658320988205</v>
@@ -3569,7 +3569,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y38" t="n">
-        <v>339.2628020374611</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="39">
@@ -3664,22 +3664,22 @@
         <v>120.2716844800353</v>
       </c>
       <c r="D40" t="n">
-        <v>101.6403363996199</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797668</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433876</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G40" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.7798782957283</v>
+        <v>97.77987829572825</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124561</v>
+        <v>49.37728379124557</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145483</v>
+        <v>41.9570160514548</v>
       </c>
       <c r="S40" t="n">
         <v>142.7938887128494</v>
@@ -3724,7 +3724,7 @@
         <v>239.5478617179985</v>
       </c>
       <c r="X40" t="n">
-        <v>178.7345187704447</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y40" t="n">
         <v>171.6095167335023</v>
@@ -3737,16 +3737,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>335.7587050448881</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C41" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D41" t="n">
-        <v>307.7079050020905</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E41" t="n">
-        <v>334.9552334536693</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F41" t="n">
         <v>359.9009091231189</v>
@@ -3755,7 +3755,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H41" t="n">
-        <v>247.632627768728</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.21262516958332</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T41" t="n">
         <v>156.9428335210276</v>
@@ -3797,7 +3797,7 @@
         <v>204.0200353403094</v>
       </c>
       <c r="V41" t="n">
-        <v>280.7771218515424</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W41" t="n">
         <v>302.2658320988205</v>
@@ -3806,7 +3806,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y41" t="n">
-        <v>339.2628020374611</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="42">
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C43" t="n">
         <v>120.2716844800353</v>
@@ -3904,19 +3904,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797666</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433873</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G43" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572827</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124558</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145483</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S43" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T43" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U43" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V43" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W43" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X43" t="n">
-        <v>178.7345187704447</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y43" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="44">
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.21262516958327</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T44" t="n">
         <v>156.9428335210276</v>
       </c>
       <c r="U44" t="n">
-        <v>204.0200353403094</v>
+        <v>204.0200353403096</v>
       </c>
       <c r="V44" t="n">
         <v>280.7771218515423</v>
@@ -4141,19 +4141,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433869</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G46" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>17.83483956191804</v>
+        <v>24.78034031112238</v>
       </c>
       <c r="C8" t="n">
-        <v>17.83483956191804</v>
+        <v>24.78034031112238</v>
       </c>
       <c r="D8" t="n">
-        <v>17.83483956191804</v>
+        <v>24.78034031112238</v>
       </c>
       <c r="E8" t="n">
-        <v>17.83483956191804</v>
+        <v>24.78034031112238</v>
       </c>
       <c r="F8" t="n">
-        <v>10.88933881271457</v>
+        <v>17.83483956191891</v>
       </c>
       <c r="G8" t="n">
-        <v>3.943838063511099</v>
+        <v>10.88933881271544</v>
       </c>
       <c r="H8" t="n">
-        <v>3.943838063511099</v>
+        <v>10.88933881271544</v>
       </c>
       <c r="I8" t="n">
-        <v>3.943838063511099</v>
+        <v>3.943838063511966</v>
       </c>
       <c r="J8" t="n">
         <v>0.5500836593369149</v>
       </c>
       <c r="K8" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="L8" t="n">
-        <v>0.5500836593369149</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="M8" t="n">
-        <v>7.082327113962777</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="N8" t="n">
-        <v>13.8896123982571</v>
+        <v>19.76819938096886</v>
       </c>
       <c r="O8" t="n">
-        <v>20.69689768255142</v>
+        <v>26.57548466526318</v>
       </c>
       <c r="P8" t="n">
-        <v>27.50418296684575</v>
+        <v>26.57548466526318</v>
       </c>
       <c r="Q8" t="n">
         <v>27.50418296684575</v>
       </c>
       <c r="R8" t="n">
-        <v>27.50418296684575</v>
+        <v>24.78034031112238</v>
       </c>
       <c r="S8" t="n">
-        <v>27.50418296684575</v>
+        <v>24.78034031112238</v>
       </c>
       <c r="T8" t="n">
-        <v>20.55868221764227</v>
+        <v>24.78034031112238</v>
       </c>
       <c r="U8" t="n">
-        <v>17.83483956191804</v>
+        <v>24.78034031112238</v>
       </c>
       <c r="V8" t="n">
-        <v>17.83483956191804</v>
+        <v>24.78034031112238</v>
       </c>
       <c r="W8" t="n">
-        <v>17.83483956191804</v>
+        <v>24.78034031112238</v>
       </c>
       <c r="X8" t="n">
-        <v>17.83483956191804</v>
+        <v>24.78034031112238</v>
       </c>
       <c r="Y8" t="n">
-        <v>17.83483956191804</v>
+        <v>24.78034031112238</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20.55868221764227</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="C9" t="n">
-        <v>20.55868221764227</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="D9" t="n">
-        <v>20.55868221764227</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="E9" t="n">
-        <v>20.55868221764227</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="F9" t="n">
-        <v>20.55868221764227</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="G9" t="n">
-        <v>14.44108515774386</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="H9" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I9" t="n">
         <v>0.5500836593369149</v>
       </c>
       <c r="J9" t="n">
-        <v>0.5500836593369149</v>
+        <v>4.875630910536634</v>
       </c>
       <c r="K9" t="n">
-        <v>7.357368943631237</v>
+        <v>4.875630910536634</v>
       </c>
       <c r="L9" t="n">
-        <v>14.16465422792556</v>
+        <v>4.875630910536634</v>
       </c>
       <c r="M9" t="n">
-        <v>20.97193951221988</v>
+        <v>4.875630910536634</v>
       </c>
       <c r="N9" t="n">
-        <v>27.50418296684575</v>
+        <v>7.082327113962777</v>
       </c>
       <c r="O9" t="n">
-        <v>27.50418296684575</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="P9" t="n">
-        <v>27.50418296684575</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="Q9" t="n">
         <v>27.50418296684575</v>
       </c>
       <c r="R9" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="S9" t="n">
-        <v>20.55868221764227</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="T9" t="n">
-        <v>20.55868221764227</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="U9" t="n">
-        <v>20.55868221764227</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="V9" t="n">
-        <v>20.55868221764227</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="W9" t="n">
-        <v>20.55868221764227</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="X9" t="n">
-        <v>20.55868221764227</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="Y9" t="n">
-        <v>20.55868221764227</v>
+        <v>7.495584408540386</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>27.50418296684575</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="C10" t="n">
-        <v>20.55868221764227</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="D10" t="n">
-        <v>20.55868221764227</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="E10" t="n">
-        <v>20.55868221764227</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="F10" t="n">
-        <v>20.55868221764227</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="G10" t="n">
-        <v>20.55868221764227</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="H10" t="n">
-        <v>14.44108515774386</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="I10" t="n">
         <v>7.495584408540386</v>
@@ -4975,37 +4975,37 @@
         <v>20.97193951221988</v>
       </c>
       <c r="O10" t="n">
-        <v>27.50418296684575</v>
+        <v>24.76285563582032</v>
       </c>
       <c r="P10" t="n">
         <v>27.50418296684575</v>
       </c>
       <c r="Q10" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="R10" t="n">
-        <v>27.50418296684575</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="S10" t="n">
-        <v>27.50418296684575</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="T10" t="n">
-        <v>27.50418296684575</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="U10" t="n">
-        <v>27.50418296684575</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="V10" t="n">
-        <v>27.50418296684575</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="W10" t="n">
-        <v>27.50418296684575</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="X10" t="n">
-        <v>27.50418296684575</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="Y10" t="n">
-        <v>27.50418296684575</v>
+        <v>13.6131814684388</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1814.757610982477</v>
+        <v>1720.954757562629</v>
       </c>
       <c r="C11" t="n">
-        <v>1490.585110790877</v>
+        <v>1396.782257371028</v>
       </c>
       <c r="D11" t="n">
-        <v>1177.109428932937</v>
+        <v>1396.782257371028</v>
       </c>
       <c r="E11" t="n">
-        <v>836.1111930835036</v>
+        <v>1055.784021521595</v>
       </c>
       <c r="F11" t="n">
-        <v>469.9153050427071</v>
+        <v>689.5881334807982</v>
       </c>
       <c r="G11" t="n">
-        <v>319.3057000746054</v>
+        <v>319.3057000746055</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N11" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3260.105169885078</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.605821609171</v>
+        <v>3098.917439018111</v>
       </c>
       <c r="U11" t="n">
-        <v>3116.865361631818</v>
+        <v>3098.917439018111</v>
       </c>
       <c r="V11" t="n">
-        <v>2830.592491037058</v>
+        <v>2812.644568423351</v>
       </c>
       <c r="W11" t="n">
-        <v>2830.592491037058</v>
+        <v>2504.665929902048</v>
       </c>
       <c r="X11" t="n">
-        <v>2501.916749524789</v>
+        <v>2175.990188389779</v>
       </c>
       <c r="Y11" t="n">
-        <v>2156.567434297788</v>
+        <v>1830.640873162778</v>
       </c>
     </row>
     <row r="12">
@@ -5094,64 +5094,64 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G12" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064549</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J12" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031483</v>
       </c>
       <c r="L12" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158139</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T12" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5160,10 +5160,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>778.0835632001318</v>
+        <v>778.0835632001319</v>
       </c>
       <c r="C13" t="n">
-        <v>653.9373970210357</v>
+        <v>653.9373970210358</v>
       </c>
       <c r="D13" t="n">
-        <v>548.6107743575108</v>
+        <v>548.6107743575109</v>
       </c>
       <c r="E13" t="n">
-        <v>445.4876975239284</v>
+        <v>445.4876975239285</v>
       </c>
       <c r="F13" t="n">
         <v>343.3877667748289</v>
@@ -5194,16 +5194,16 @@
         <v>119.0477768650273</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J13" t="n">
-        <v>155.5334442946287</v>
+        <v>155.5334442946284</v>
       </c>
       <c r="K13" t="n">
-        <v>403.4193226590144</v>
+        <v>403.4193226590141</v>
       </c>
       <c r="L13" t="n">
-        <v>763.87781652302</v>
+        <v>763.8778165230196</v>
       </c>
       <c r="M13" t="n">
         <v>1151.933557538078</v>
@@ -5224,16 +5224,16 @@
         <v>2233.443670918907</v>
       </c>
       <c r="S13" t="n">
-        <v>2086.547803494544</v>
+        <v>2149.955181377922</v>
       </c>
       <c r="T13" t="n">
-        <v>1909.571204812881</v>
+        <v>1972.978582696259</v>
       </c>
       <c r="U13" t="n">
-        <v>1665.258354687335</v>
+        <v>1728.665732570713</v>
       </c>
       <c r="V13" t="n">
-        <v>1518.771261113636</v>
+        <v>1518.771261113637</v>
       </c>
       <c r="W13" t="n">
         <v>1274.144107825487</v>
@@ -5242,7 +5242,7 @@
         <v>1090.94457367628</v>
       </c>
       <c r="Y13" t="n">
-        <v>914.9420112815608</v>
+        <v>914.9420112815609</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2034.430439420569</v>
+        <v>1664.148006014377</v>
       </c>
       <c r="C14" t="n">
-        <v>1710.257939228968</v>
+        <v>1339.975505822776</v>
       </c>
       <c r="D14" t="n">
-        <v>1396.782257371028</v>
+        <v>1026.499823964836</v>
       </c>
       <c r="E14" t="n">
-        <v>1055.784021521595</v>
+        <v>685.5015881154025</v>
       </c>
       <c r="F14" t="n">
-        <v>689.5881334807982</v>
+        <v>319.3057000746055</v>
       </c>
       <c r="G14" t="n">
-        <v>319.3057000746054</v>
+        <v>319.3057000746055</v>
       </c>
       <c r="H14" t="n">
         <v>66.51211643218342</v>
@@ -5276,22 +5276,22 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P14" t="n">
         <v>3018.302393296686</v>
@@ -5303,25 +5303,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3260.105169885077</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>3098.91743901811</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U14" t="n">
-        <v>2974.031263763633</v>
+        <v>3116.865361631817</v>
       </c>
       <c r="V14" t="n">
-        <v>2687.758393168873</v>
+        <v>2987.961524590261</v>
       </c>
       <c r="W14" t="n">
-        <v>2379.77975464757</v>
+        <v>2679.982886068958</v>
       </c>
       <c r="X14" t="n">
-        <v>2379.77975464757</v>
+        <v>2351.307144556689</v>
       </c>
       <c r="Y14" t="n">
-        <v>2034.430439420569</v>
+        <v>2005.957829329688</v>
       </c>
     </row>
     <row r="15">
@@ -5361,7 +5361,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>759.7166258104155</v>
+        <v>778.0835632001325</v>
       </c>
       <c r="C16" t="n">
-        <v>635.5704596313196</v>
+        <v>653.9373970210363</v>
       </c>
       <c r="D16" t="n">
-        <v>530.243836967795</v>
+        <v>548.6107743575112</v>
       </c>
       <c r="E16" t="n">
-        <v>427.1207601342127</v>
+        <v>445.4876975239288</v>
       </c>
       <c r="F16" t="n">
-        <v>325.0208293851132</v>
+        <v>343.3877667748292</v>
       </c>
       <c r="G16" t="n">
-        <v>220.4749468983587</v>
+        <v>220.4749468983588</v>
       </c>
       <c r="H16" t="n">
-        <v>119.0477768650273</v>
+        <v>119.0477768650274</v>
       </c>
       <c r="I16" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>155.5334442946282</v>
+        <v>155.5334442946283</v>
       </c>
       <c r="K16" t="n">
         <v>403.4193226590141</v>
       </c>
       <c r="L16" t="n">
-        <v>763.8778165230196</v>
+        <v>763.8778165230194</v>
       </c>
       <c r="M16" t="n">
         <v>1151.933557538078</v>
@@ -5452,34 +5452,34 @@
         <v>1880.468923995375</v>
       </c>
       <c r="P16" t="n">
-        <v>2156.975119844544</v>
+        <v>2156.975119844543</v>
       </c>
       <c r="Q16" t="n">
-        <v>2278.484111412568</v>
+        <v>2278.484111412567</v>
       </c>
       <c r="R16" t="n">
-        <v>2278.484111412568</v>
+        <v>2233.443670918906</v>
       </c>
       <c r="S16" t="n">
-        <v>2131.588243988206</v>
+        <v>2086.547803494543</v>
       </c>
       <c r="T16" t="n">
-        <v>1954.611645306542</v>
+        <v>1909.57120481288</v>
       </c>
       <c r="U16" t="n">
-        <v>1710.298795180997</v>
+        <v>1665.258354687334</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.40432372392</v>
+        <v>1455.363883230258</v>
       </c>
       <c r="W16" t="n">
-        <v>1255.77717043577</v>
+        <v>1210.736729942108</v>
       </c>
       <c r="X16" t="n">
-        <v>1072.577636286564</v>
+        <v>1090.944573676281</v>
       </c>
       <c r="Y16" t="n">
-        <v>896.5750738918445</v>
+        <v>914.9420112815615</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1696.959858232656</v>
+        <v>1627.38364477722</v>
       </c>
       <c r="C17" t="n">
-        <v>1696.959858232656</v>
+        <v>1305.870760784881</v>
       </c>
       <c r="D17" t="n">
-        <v>1386.143792573978</v>
+        <v>1305.870760784881</v>
       </c>
       <c r="E17" t="n">
-        <v>1047.805172923808</v>
+        <v>967.5321411347105</v>
       </c>
       <c r="F17" t="n">
-        <v>684.2689010822733</v>
+        <v>603.9958692931763</v>
       </c>
       <c r="G17" t="n">
-        <v>316.6460838753429</v>
+        <v>236.373052086246</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
         <v>255.3912473912092</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329465</v>
@@ -5528,7 +5528,7 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
         <v>3018.302393296687</v>
@@ -5540,25 +5540,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3262.764786084339</v>
+        <v>3262.76478608434</v>
       </c>
       <c r="T17" t="n">
-        <v>3157.139311157339</v>
+        <v>3104.236671416635</v>
       </c>
       <c r="U17" t="n">
-        <v>2951.058467379249</v>
+        <v>2898.155827638545</v>
       </c>
       <c r="V17" t="n">
-        <v>2667.445212983752</v>
+        <v>2614.542573243048</v>
       </c>
       <c r="W17" t="n">
-        <v>2362.126190661711</v>
+        <v>2309.223550921007</v>
       </c>
       <c r="X17" t="n">
-        <v>2036.110065348704</v>
+        <v>2309.223550921007</v>
       </c>
       <c r="Y17" t="n">
-        <v>2036.110065348704</v>
+        <v>1966.533851893269</v>
       </c>
     </row>
     <row r="18">
@@ -5583,22 +5583,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5668,16 +5668,16 @@
         <v>116.3881606657648</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J19" t="n">
         <v>158.1401341315256</v>
       </c>
       <c r="K19" t="n">
-        <v>408.6327023328086</v>
+        <v>408.6327023328087</v>
       </c>
       <c r="L19" t="n">
-        <v>771.6978860337114</v>
+        <v>771.6978860337115</v>
       </c>
       <c r="M19" t="n">
         <v>1162.360316885667</v>
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1654.936470383461</v>
+        <v>1707.656676566316</v>
       </c>
       <c r="C20" t="n">
-        <v>1333.423586391122</v>
+        <v>1386.143792573978</v>
       </c>
       <c r="D20" t="n">
-        <v>1022.607520732445</v>
+        <v>1386.143792573978</v>
       </c>
       <c r="E20" t="n">
-        <v>684.2689010822735</v>
+        <v>1047.805172923807</v>
       </c>
       <c r="F20" t="n">
-        <v>684.2689010822735</v>
+        <v>684.2689010822729</v>
       </c>
       <c r="G20" t="n">
-        <v>316.6460838753433</v>
+        <v>316.6460838753427</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R20" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3262.76478608434</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T20" t="n">
-        <v>3174.192367940384</v>
+        <v>3167.077706941467</v>
       </c>
       <c r="U20" t="n">
-        <v>2968.111524162294</v>
+        <v>3167.077706941467</v>
       </c>
       <c r="V20" t="n">
-        <v>2968.111524162294</v>
+        <v>2883.464452545969</v>
       </c>
       <c r="W20" t="n">
-        <v>2662.792501840254</v>
+        <v>2578.145430223929</v>
       </c>
       <c r="X20" t="n">
-        <v>2336.776376527248</v>
+        <v>2252.129304910922</v>
       </c>
       <c r="Y20" t="n">
-        <v>1994.086677499509</v>
+        <v>1909.439605883184</v>
       </c>
     </row>
     <row r="21">
@@ -5820,22 +5820,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K21" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5884,49 +5884,49 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>759.4662498052944</v>
+        <v>759.4662498052942</v>
       </c>
       <c r="C22" t="n">
-        <v>637.9796998254608</v>
+        <v>637.9796998254606</v>
       </c>
       <c r="D22" t="n">
-        <v>535.3126933611984</v>
+        <v>535.3126933611982</v>
       </c>
       <c r="E22" t="n">
-        <v>434.8492327268785</v>
+        <v>434.8492327268784</v>
       </c>
       <c r="F22" t="n">
-        <v>335.4089181770415</v>
+        <v>335.4089181770413</v>
       </c>
       <c r="G22" t="n">
-        <v>215.1557144998337</v>
+        <v>215.1557144998336</v>
       </c>
       <c r="H22" t="n">
         <v>116.3881606657648</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J22" t="n">
-        <v>158.1401341315256</v>
+        <v>158.1401341315257</v>
       </c>
       <c r="K22" t="n">
-        <v>408.6327023328086</v>
+        <v>408.6327023328088</v>
       </c>
       <c r="L22" t="n">
-        <v>771.6978860337115</v>
+        <v>771.6978860337116</v>
       </c>
       <c r="M22" t="n">
         <v>1162.360316885667</v>
       </c>
       <c r="N22" t="n">
-        <v>1550.274078843938</v>
+        <v>1550.274078843939</v>
       </c>
       <c r="O22" t="n">
-        <v>1896.109063016758</v>
+        <v>1896.109063016759</v>
       </c>
       <c r="P22" t="n">
-        <v>2175.221948702824</v>
+        <v>2175.221948702825</v>
       </c>
       <c r="Q22" t="n">
         <v>2299.337630107746</v>
@@ -5950,10 +5950,10 @@
         <v>1247.547945832862</v>
       </c>
       <c r="X22" t="n">
-        <v>1067.008027882918</v>
+        <v>1067.008027882917</v>
       </c>
       <c r="Y22" t="n">
-        <v>893.6650816874608</v>
+        <v>893.6650816874605</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2033.107542689501</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C23" t="n">
-        <v>1711.594658697163</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D23" t="n">
-        <v>1400.778593038486</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E23" t="n">
-        <v>1062.439973388315</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F23" t="n">
-        <v>698.9037015467804</v>
+        <v>698.9037015467793</v>
       </c>
       <c r="G23" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H23" t="n">
-        <v>81.14691689668919</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I23" t="n">
-        <v>81.14691689668919</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J23" t="n">
-        <v>437.4316968760677</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K23" t="n">
-        <v>771.2510705659142</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L23" t="n">
-        <v>1222.285283814323</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M23" t="n">
-        <v>1755.817188486248</v>
+        <v>2033.429937623799</v>
       </c>
       <c r="N23" t="n">
-        <v>2302.59600554503</v>
+        <v>2787.236323611206</v>
       </c>
       <c r="O23" t="n">
-        <v>3080.016953737238</v>
+        <v>3290.208794490543</v>
       </c>
       <c r="P23" t="n">
-        <v>3474.791320094416</v>
+        <v>3684.983160847721</v>
       </c>
       <c r="Q23" t="n">
-        <v>3933.269522603404</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R23" t="n">
-        <v>4057.34584483446</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S23" t="n">
-        <v>3994.504809309628</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T23" t="n">
-        <v>3835.976694641923</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U23" t="n">
-        <v>3629.895850863833</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V23" t="n">
-        <v>3346.282596468336</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W23" t="n">
-        <v>3040.963574146295</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X23" t="n">
-        <v>2714.947448833288</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y23" t="n">
-        <v>2372.25774980555</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="24">
@@ -6063,16 +6063,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I24" t="n">
-        <v>81.14691689668919</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J24" t="n">
-        <v>174.8241863873066</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K24" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L24" t="n">
-        <v>779.7865456803191</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M24" t="n">
         <v>1227.062870902635</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C25" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D25" t="n">
         <v>549.9474938257041</v>
       </c>
       <c r="E25" t="n">
-        <v>449.4840331913843</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F25" t="n">
         <v>350.0437186415472</v>
       </c>
       <c r="G25" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H25" t="n">
-        <v>131.0229611302706</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I25" t="n">
-        <v>81.14691689668919</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J25" t="n">
         <v>172.7749345960314</v>
@@ -6151,7 +6151,7 @@
         <v>423.2675027973144</v>
       </c>
       <c r="L25" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M25" t="n">
         <v>1176.995117350173</v>
@@ -6175,7 +6175,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T25" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U25" t="n">
         <v>1711.385138644068</v>
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2045.209383194911</v>
+        <v>2045.209383194913</v>
       </c>
       <c r="C26" t="n">
-        <v>1721.771206394894</v>
+        <v>1721.771206394895</v>
       </c>
       <c r="D26" t="n">
-        <v>1409.029847928537</v>
+        <v>1409.029847928538</v>
       </c>
       <c r="E26" t="n">
-        <v>1068.765935470687</v>
+        <v>1068.765935470688</v>
       </c>
       <c r="F26" t="n">
-        <v>703.3043708214736</v>
+        <v>703.3043708214745</v>
       </c>
       <c r="G26" t="n">
-        <v>333.7562608068648</v>
+        <v>333.7562608068649</v>
       </c>
       <c r="H26" t="n">
-        <v>81.69700055602607</v>
+        <v>81.69700055602608</v>
       </c>
       <c r="I26" t="n">
-        <v>81.69700055602607</v>
+        <v>81.69700055602608</v>
       </c>
       <c r="J26" t="n">
-        <v>270.5761315150515</v>
+        <v>437.9817805354045</v>
       </c>
       <c r="K26" t="n">
-        <v>604.395505204898</v>
+        <v>771.801154225251</v>
       </c>
       <c r="L26" t="n">
-        <v>1055.429718453307</v>
+        <v>1222.83536747366</v>
       </c>
       <c r="M26" t="n">
-        <v>1588.961623125231</v>
+        <v>2201.385670303488</v>
       </c>
       <c r="N26" t="n">
-        <v>2568.713895351878</v>
+        <v>2748.164487362271</v>
       </c>
       <c r="O26" t="n">
-        <v>3382.77223313164</v>
+        <v>3251.136958241608</v>
       </c>
       <c r="P26" t="n">
-        <v>3777.546599488819</v>
+        <v>3645.911324598786</v>
       </c>
       <c r="Q26" t="n">
-        <v>4025.832961244501</v>
+        <v>3960.773705570249</v>
       </c>
       <c r="R26" t="n">
-        <v>4084.850027801303</v>
+        <v>4084.850027801304</v>
       </c>
       <c r="S26" t="n">
-        <v>4020.083699468792</v>
+        <v>4020.083699468793</v>
       </c>
       <c r="T26" t="n">
-        <v>3859.630291993409</v>
+        <v>3859.63029199341</v>
       </c>
       <c r="U26" t="n">
-        <v>3651.62415540764</v>
+        <v>3651.624155407641</v>
       </c>
       <c r="V26" t="n">
-        <v>3366.085608204463</v>
+        <v>3366.085608204464</v>
       </c>
       <c r="W26" t="n">
-        <v>3058.841293074743</v>
+        <v>3058.841293074744</v>
       </c>
       <c r="X26" t="n">
-        <v>2730.899874954057</v>
+        <v>2730.899874954058</v>
       </c>
       <c r="Y26" t="n">
-        <v>2386.284883118639</v>
+        <v>2386.28488311864</v>
       </c>
     </row>
     <row r="27">
@@ -6300,7 +6300,7 @@
         <v>100.7042921544881</v>
       </c>
       <c r="I27" t="n">
-        <v>81.69700055602607</v>
+        <v>81.69700055602608</v>
       </c>
       <c r="J27" t="n">
         <v>175.3742700466434</v>
@@ -6309,10 +6309,10 @@
         <v>413.6384690269905</v>
       </c>
       <c r="L27" t="n">
-        <v>780.3366293396559</v>
+        <v>780.3366293396556</v>
       </c>
       <c r="M27" t="n">
-        <v>1227.612954561972</v>
+        <v>1227.612954561971</v>
       </c>
       <c r="N27" t="n">
         <v>1701.135998116426</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>742.2276628135731</v>
+        <v>742.2276628135714</v>
       </c>
       <c r="C28" t="n">
-        <v>618.8158200260604</v>
+        <v>618.8158200260585</v>
       </c>
       <c r="D28" t="n">
-        <v>514.2235207541187</v>
+        <v>514.2235207541169</v>
       </c>
       <c r="E28" t="n">
-        <v>457.7352880814379</v>
+        <v>411.8347673121178</v>
       </c>
       <c r="F28" t="n">
-        <v>356.3696807239217</v>
+        <v>310.4691599546015</v>
       </c>
       <c r="G28" t="n">
-        <v>234.1911842390348</v>
+        <v>188.2906634697144</v>
       </c>
       <c r="H28" t="n">
-        <v>133.4983375972866</v>
+        <v>133.4983375972867</v>
       </c>
       <c r="I28" t="n">
-        <v>81.69700055602607</v>
+        <v>81.69700055602608</v>
       </c>
       <c r="J28" t="n">
         <v>171.4380387745619</v>
@@ -6400,34 +6400,34 @@
         <v>1899.972070255762</v>
       </c>
       <c r="P28" t="n">
-        <v>2177.197976461022</v>
+        <v>2177.197976461021</v>
       </c>
       <c r="Q28" t="n">
-        <v>2299.426678385137</v>
+        <v>2299.426678385136</v>
       </c>
       <c r="R28" t="n">
-        <v>2255.120561283059</v>
+        <v>2255.120561283058</v>
       </c>
       <c r="S28" t="n">
         <v>2108.959017250279</v>
       </c>
       <c r="T28" t="n">
-        <v>1932.7167419602</v>
+        <v>1932.716741960199</v>
       </c>
       <c r="U28" t="n">
-        <v>1689.138215226237</v>
+        <v>1689.138215226236</v>
       </c>
       <c r="V28" t="n">
-        <v>1479.978067160744</v>
+        <v>1479.978067160743</v>
       </c>
       <c r="W28" t="n">
-        <v>1236.085237264178</v>
+        <v>1236.085237264177</v>
       </c>
       <c r="X28" t="n">
-        <v>1053.620026506555</v>
+        <v>1053.620026506553</v>
       </c>
       <c r="Y28" t="n">
-        <v>878.3517875034188</v>
+        <v>878.3517875034171</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6461,28 @@
         <v>81.69700055602608</v>
       </c>
       <c r="J29" t="n">
-        <v>437.9817805354045</v>
+        <v>270.5761315150515</v>
       </c>
       <c r="K29" t="n">
-        <v>771.801154225251</v>
+        <v>604.395505204898</v>
       </c>
       <c r="L29" t="n">
-        <v>1222.83536747366</v>
+        <v>1055.429718453307</v>
       </c>
       <c r="M29" t="n">
-        <v>1756.367272145585</v>
+        <v>2033.980021283136</v>
       </c>
       <c r="N29" t="n">
-        <v>2303.146089204367</v>
+        <v>2879.799762252304</v>
       </c>
       <c r="O29" t="n">
-        <v>2806.118560083704</v>
+        <v>3382.772233131641</v>
       </c>
       <c r="P29" t="n">
-        <v>3502.295503061261</v>
+        <v>3777.54659948882</v>
       </c>
       <c r="Q29" t="n">
-        <v>3960.773705570249</v>
+        <v>4025.832961244502</v>
       </c>
       <c r="R29" t="n">
         <v>4084.850027801304</v>
@@ -6506,7 +6506,7 @@
         <v>2730.899874954057</v>
       </c>
       <c r="Y29" t="n">
-        <v>2386.28488311864</v>
+        <v>2386.284883118639</v>
       </c>
     </row>
     <row r="30">
@@ -6540,10 +6540,10 @@
         <v>81.69700055602608</v>
       </c>
       <c r="J30" t="n">
-        <v>175.3742700466431</v>
+        <v>175.3742700466434</v>
       </c>
       <c r="K30" t="n">
-        <v>413.6384690269902</v>
+        <v>413.6384690269905</v>
       </c>
       <c r="L30" t="n">
         <v>780.3366293396556</v>
@@ -6595,10 +6595,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>786.5337799156507</v>
+        <v>788.1281835828916</v>
       </c>
       <c r="C31" t="n">
-        <v>663.1219371281379</v>
+        <v>664.7163407953788</v>
       </c>
       <c r="D31" t="n">
         <v>560.1240415234371</v>
@@ -6619,10 +6619,10 @@
         <v>81.69700055602608</v>
       </c>
       <c r="J31" t="n">
-        <v>171.4380387745618</v>
+        <v>171.4380387745619</v>
       </c>
       <c r="K31" t="n">
-        <v>420.0436274950385</v>
+        <v>420.0436274950384</v>
       </c>
       <c r="L31" t="n">
         <v>781.2218317151348</v>
@@ -6634,7 +6634,7 @@
         <v>1556.024065563749</v>
       </c>
       <c r="O31" t="n">
-        <v>1899.972070255762</v>
+        <v>1899.972070255763</v>
       </c>
       <c r="P31" t="n">
         <v>2177.197976461022</v>
@@ -6643,28 +6643,28 @@
         <v>2299.426678385137</v>
       </c>
       <c r="R31" t="n">
-        <v>2299.426678385137</v>
+        <v>2255.120561283059</v>
       </c>
       <c r="S31" t="n">
-        <v>2153.265134352357</v>
+        <v>2108.959017250279</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.022859062277</v>
+        <v>1932.7167419602</v>
       </c>
       <c r="U31" t="n">
-        <v>1733.444332328315</v>
+        <v>1689.138215226237</v>
       </c>
       <c r="V31" t="n">
-        <v>1524.284184262822</v>
+        <v>1479.978067160745</v>
       </c>
       <c r="W31" t="n">
-        <v>1280.391354366256</v>
+        <v>1236.085237264178</v>
       </c>
       <c r="X31" t="n">
-        <v>1097.926143608632</v>
+        <v>1053.620026506555</v>
       </c>
       <c r="Y31" t="n">
-        <v>922.6579046054964</v>
+        <v>878.3517875034189</v>
       </c>
     </row>
     <row r="32">
@@ -6680,7 +6680,7 @@
         <v>1711.594658697162</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E32" t="n">
         <v>1062.439973388314</v>
@@ -6707,10 +6707,10 @@
         <v>1054.87963479397</v>
       </c>
       <c r="M32" t="n">
-        <v>2033.429937623799</v>
+        <v>1872.543307058812</v>
       </c>
       <c r="N32" t="n">
-        <v>2580.208754682581</v>
+        <v>2852.295579285459</v>
       </c>
       <c r="O32" t="n">
         <v>3355.268050164796</v>
@@ -6728,13 +6728,13 @@
         <v>3994.504809309627</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641923</v>
       </c>
       <c r="U32" t="n">
         <v>3629.895850863832</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W32" t="n">
         <v>3040.963574146293</v>
@@ -6743,7 +6743,7 @@
         <v>2714.947448833287</v>
       </c>
       <c r="Y32" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="33">
@@ -6777,10 +6777,10 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8241863873066</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L33" t="n">
         <v>779.7865456803191</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502697995</v>
+        <v>774.1010502698002</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899659</v>
+        <v>652.6145002899666</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257035</v>
+        <v>549.9474938257042</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913837</v>
+        <v>449.4840331913844</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415466</v>
+        <v>350.0437186415473</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643389</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H34" t="n">
         <v>131.0229611302705</v>
@@ -6856,16 +6856,16 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960315</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973145</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982173</v>
       </c>
       <c r="M34" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N34" t="n">
         <v>1564.908879308444</v>
@@ -6880,28 +6880,28 @@
         <v>2313.972430572251</v>
       </c>
       <c r="R34" t="n">
-        <v>2271.591606277851</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S34" t="n">
-        <v>2127.355355052751</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T34" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U34" t="n">
-        <v>1711.385138644067</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V34" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W34" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X34" t="n">
         <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519659</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="35">
@@ -6914,25 +6914,25 @@
         <v>2033.1075426895</v>
       </c>
       <c r="C35" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D35" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E35" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F35" t="n">
-        <v>698.9037015467795</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G35" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H35" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I35" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J35" t="n">
         <v>437.4316968760676</v>
@@ -6953,34 +6953,34 @@
         <v>2805.568476424367</v>
       </c>
       <c r="P35" t="n">
-        <v>3518.923563871313</v>
+        <v>3474.791320094414</v>
       </c>
       <c r="Q35" t="n">
-        <v>3933.269522603403</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R35" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S35" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T35" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U35" t="n">
         <v>3629.895850863832</v>
       </c>
       <c r="V35" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W35" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X35" t="n">
         <v>2714.947448833287</v>
       </c>
       <c r="Y35" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="36">
@@ -6990,37 +6990,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>956.1786549456147</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C36" t="n">
-        <v>781.7256256644877</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D36" t="n">
-        <v>632.7912160032365</v>
+        <v>632.7912160032361</v>
       </c>
       <c r="E36" t="n">
-        <v>473.553760997781</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F36" t="n">
-        <v>327.019203024666</v>
+        <v>327.0192030246656</v>
       </c>
       <c r="G36" t="n">
-        <v>190.6561028572846</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H36" t="n">
-        <v>100.1542084951516</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I36" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J36" t="n">
-        <v>174.8241863873068</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K36" t="n">
-        <v>413.0883853676542</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L36" t="n">
-        <v>779.7865456803195</v>
+        <v>779.7865456803191</v>
       </c>
       <c r="M36" t="n">
         <v>1227.062870902635</v>
@@ -7029,25 +7029,25 @@
         <v>1700.58591445709</v>
       </c>
       <c r="O36" t="n">
-        <v>2111.547193875145</v>
+        <v>2111.547193875144</v>
       </c>
       <c r="P36" t="n">
-        <v>2422.046785351248</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q36" t="n">
         <v>2579.688342997847</v>
       </c>
       <c r="R36" t="n">
-        <v>2579.543989590363</v>
+        <v>2579.543989590362</v>
       </c>
       <c r="S36" t="n">
-        <v>2450.106103083843</v>
+        <v>2450.106103083842</v>
       </c>
       <c r="T36" t="n">
         <v>2257.463102761698</v>
       </c>
       <c r="U36" t="n">
-        <v>2029.395255896114</v>
+        <v>2029.395255896113</v>
       </c>
       <c r="V36" t="n">
         <v>1794.243147664371</v>
@@ -7056,10 +7056,10 @@
         <v>1540.005790936169</v>
       </c>
       <c r="X36" t="n">
-        <v>1332.154290730637</v>
+        <v>1332.154290730636</v>
       </c>
       <c r="Y36" t="n">
-        <v>1124.393991965683</v>
+        <v>1124.393991965682</v>
       </c>
     </row>
     <row r="37">
@@ -7069,40 +7069,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502698002</v>
       </c>
       <c r="C37" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899666</v>
       </c>
       <c r="D37" t="n">
         <v>549.9474938257041</v>
       </c>
       <c r="E37" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913843</v>
       </c>
       <c r="F37" t="n">
         <v>350.0437186415472</v>
       </c>
       <c r="G37" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H37" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I37" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J37" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K37" t="n">
-        <v>423.267502797314</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L37" t="n">
-        <v>786.3326864982168</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M37" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N37" t="n">
         <v>1564.908879308444</v>
@@ -7117,22 +7117,22 @@
         <v>2313.972430572251</v>
       </c>
       <c r="R37" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S37" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T37" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U37" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V37" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W37" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X37" t="n">
         <v>1081.642828347423</v>
@@ -7148,55 +7148,55 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2033.107542689501</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C38" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D38" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E38" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F38" t="n">
-        <v>698.9037015467798</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G38" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H38" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I38" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J38" t="n">
         <v>437.4316968760676</v>
       </c>
       <c r="K38" t="n">
-        <v>771.2510705659141</v>
+        <v>792.1780824632688</v>
       </c>
       <c r="L38" t="n">
-        <v>1222.285283814323</v>
+        <v>1243.212295711678</v>
       </c>
       <c r="M38" t="n">
-        <v>1755.817188486248</v>
+        <v>1776.744200383602</v>
       </c>
       <c r="N38" t="n">
-        <v>2302.59600554503</v>
+        <v>2323.523017442385</v>
       </c>
       <c r="O38" t="n">
-        <v>2805.568476424367</v>
+        <v>2826.495488321721</v>
       </c>
       <c r="P38" t="n">
-        <v>3474.791320094415</v>
+        <v>3539.850575768668</v>
       </c>
       <c r="Q38" t="n">
-        <v>3933.269522603403</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R38" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S38" t="n">
         <v>3994.504809309627</v>
@@ -7208,16 +7208,16 @@
         <v>3629.895850863832</v>
       </c>
       <c r="V38" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W38" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X38" t="n">
-        <v>2714.947448833288</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y38" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="39">
@@ -7248,7 +7248,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I39" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J39" t="n">
         <v>174.8241863873065</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>774.1010502698007</v>
+        <v>774.1010502698002</v>
       </c>
       <c r="C40" t="n">
-        <v>652.6145002899669</v>
+        <v>652.6145002899666</v>
       </c>
       <c r="D40" t="n">
-        <v>549.9474938257044</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E40" t="n">
-        <v>449.4840331913845</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F40" t="n">
-        <v>350.0437186415474</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G40" t="n">
-        <v>229.7905149643396</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H40" t="n">
-        <v>131.0229611302706</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I40" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J40" t="n">
         <v>172.7749345960313</v>
@@ -7336,10 +7336,10 @@
         <v>423.2675027973143</v>
       </c>
       <c r="L40" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M40" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N40" t="n">
         <v>1564.908879308444</v>
@@ -7348,34 +7348,34 @@
         <v>1910.743863481264</v>
       </c>
       <c r="P40" t="n">
-        <v>2189.856749167331</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q40" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R40" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S40" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T40" t="n">
-        <v>1953.038372570353</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U40" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V40" t="n">
-        <v>1504.150283386256</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W40" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X40" t="n">
         <v>1081.642828347424</v>
       </c>
       <c r="Y40" t="n">
-        <v>908.2998821519672</v>
+        <v>908.2998821519667</v>
       </c>
     </row>
     <row r="41">
@@ -7397,43 +7397,43 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F41" t="n">
-        <v>698.9037015467791</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G41" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H41" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I41" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J41" t="n">
-        <v>331.9210317052867</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K41" t="n">
-        <v>665.7404053951332</v>
+        <v>924.7493799910142</v>
       </c>
       <c r="L41" t="n">
-        <v>1116.774618643542</v>
+        <v>1375.783593239423</v>
       </c>
       <c r="M41" t="n">
-        <v>2095.324921473371</v>
+        <v>1909.315497911347</v>
       </c>
       <c r="N41" t="n">
-        <v>2642.103738532153</v>
+        <v>2456.09431497013</v>
       </c>
       <c r="O41" t="n">
-        <v>3145.07620941149</v>
+        <v>2959.066785849467</v>
       </c>
       <c r="P41" t="n">
-        <v>3539.850575768668</v>
+        <v>3672.421873296413</v>
       </c>
       <c r="Q41" t="n">
         <v>3998.328778277656</v>
       </c>
       <c r="R41" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S41" t="n">
         <v>3994.504809309627</v>
@@ -7485,16 +7485,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I42" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J42" t="n">
         <v>174.8241863873065</v>
       </c>
       <c r="K42" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L42" t="n">
-        <v>779.7865456803191</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M42" t="n">
         <v>1227.062870902635</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>774.1010502698005</v>
+        <v>774.1010502698002</v>
       </c>
       <c r="C43" t="n">
-        <v>652.6145002899668</v>
+        <v>652.6145002899666</v>
       </c>
       <c r="D43" t="n">
-        <v>549.9474938257043</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E43" t="n">
-        <v>449.4840331913845</v>
+        <v>449.4840331913843</v>
       </c>
       <c r="F43" t="n">
-        <v>350.0437186415473</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G43" t="n">
         <v>229.7905149643395</v>
       </c>
       <c r="H43" t="n">
-        <v>131.0229611302706</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I43" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J43" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K43" t="n">
         <v>423.2675027973143</v>
       </c>
       <c r="L43" t="n">
-        <v>786.332686498218</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M43" t="n">
-        <v>1176.995117350174</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N43" t="n">
-        <v>1564.908879308445</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O43" t="n">
-        <v>1910.743863481265</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P43" t="n">
-        <v>2189.856749167331</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q43" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R43" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S43" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T43" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U43" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V43" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W43" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X43" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y43" t="n">
-        <v>908.2998821519669</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="44">
@@ -7628,49 +7628,49 @@
         <v>1711.594658697162</v>
       </c>
       <c r="D44" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E44" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F44" t="n">
-        <v>698.9037015467798</v>
+        <v>698.903701546779</v>
       </c>
       <c r="G44" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H44" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I44" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J44" t="n">
         <v>437.4316968760676</v>
       </c>
       <c r="K44" t="n">
-        <v>771.2510705659141</v>
+        <v>792.1780824632688</v>
       </c>
       <c r="L44" t="n">
-        <v>1222.285283814323</v>
+        <v>1243.212295711678</v>
       </c>
       <c r="M44" t="n">
-        <v>1755.817188486248</v>
+        <v>1776.744200383602</v>
       </c>
       <c r="N44" t="n">
-        <v>2302.59600554503</v>
+        <v>2323.523017442385</v>
       </c>
       <c r="O44" t="n">
-        <v>2805.568476424367</v>
+        <v>2826.495488321721</v>
       </c>
       <c r="P44" t="n">
-        <v>3518.923563871313</v>
+        <v>3539.850575768668</v>
       </c>
       <c r="Q44" t="n">
-        <v>3977.401766380301</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R44" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S44" t="n">
         <v>3994.504809309627</v>
@@ -7682,16 +7682,16 @@
         <v>3629.895850863832</v>
       </c>
       <c r="V44" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W44" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X44" t="n">
         <v>2714.947448833287</v>
       </c>
       <c r="Y44" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="45">
@@ -7722,16 +7722,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I45" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J45" t="n">
         <v>174.8241863873065</v>
       </c>
       <c r="K45" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L45" t="n">
-        <v>779.7865456803191</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M45" t="n">
         <v>1227.062870902635</v>
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>774.1010502697998</v>
+        <v>774.1010502697995</v>
       </c>
       <c r="C46" t="n">
-        <v>652.6145002899661</v>
+        <v>652.6145002899659</v>
       </c>
       <c r="D46" t="n">
-        <v>549.9474938257038</v>
+        <v>549.9474938257035</v>
       </c>
       <c r="E46" t="n">
-        <v>449.4840331913839</v>
+        <v>449.4840331913837</v>
       </c>
       <c r="F46" t="n">
-        <v>350.0437186415468</v>
+        <v>350.0437186415466</v>
       </c>
       <c r="G46" t="n">
-        <v>229.7905149643391</v>
+        <v>229.7905149643389</v>
       </c>
       <c r="H46" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I46" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J46" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K46" t="n">
         <v>423.2675027973143</v>
@@ -7813,7 +7813,7 @@
         <v>786.3326864982171</v>
       </c>
       <c r="M46" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N46" t="n">
         <v>1564.908879308444</v>
@@ -7825,13 +7825,13 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q46" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R46" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S46" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T46" t="n">
         <v>1953.038372570351</v>
@@ -7840,7 +7840,7 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V46" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386254</v>
       </c>
       <c r="W46" t="n">
         <v>1262.182746297367</v>
@@ -7849,7 +7849,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y46" t="n">
-        <v>908.2998821519661</v>
+        <v>908.2998821519659</v>
       </c>
     </row>
   </sheetData>
@@ -8453,25 +8453,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>207.2164583668001</v>
+        <v>214.0925041085128</v>
       </c>
       <c r="L8" t="n">
-        <v>219.7958330094557</v>
+        <v>226.6718787511687</v>
       </c>
       <c r="M8" t="n">
-        <v>219.1741093062217</v>
+        <v>212.5758835944802</v>
       </c>
       <c r="N8" t="n">
-        <v>218.2312168701209</v>
+        <v>217.0153177476469</v>
       </c>
       <c r="O8" t="n">
-        <v>219.9227013672382</v>
+        <v>219.9227013672399</v>
       </c>
       <c r="P8" t="n">
-        <v>223.5559331266444</v>
+        <v>216.6798873849344</v>
       </c>
       <c r="Q8" t="n">
-        <v>211.376911567396</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>121.7217956927318</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>135.9737147440469</v>
+        <v>129.0976690023363</v>
       </c>
       <c r="L9" t="n">
-        <v>133.6733477459649</v>
+        <v>126.7973020042547</v>
       </c>
       <c r="M9" t="n">
-        <v>135.2901244451133</v>
+        <v>128.4140787034033</v>
       </c>
       <c r="N9" t="n">
-        <v>123.8568561868243</v>
+        <v>119.4876165391492</v>
       </c>
       <c r="O9" t="n">
-        <v>129.7129761262121</v>
+        <v>136.5890218679248</v>
       </c>
       <c r="P9" t="n">
-        <v>123.6344487799504</v>
+        <v>130.5104945216629</v>
       </c>
       <c r="Q9" t="n">
-        <v>133.0697855680604</v>
+        <v>139.9458313097726</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>135.0115522938099</v>
+        <v>135.0115522938106</v>
       </c>
       <c r="M10" t="n">
-        <v>138.6857765133621</v>
+        <v>138.6857765133628</v>
       </c>
       <c r="N10" t="n">
-        <v>127.6147408703536</v>
+        <v>127.6147408703542</v>
       </c>
       <c r="O10" t="n">
-        <v>138.638224421097</v>
+        <v>135.8692069150114</v>
       </c>
       <c r="P10" t="n">
-        <v>132.2375458079543</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>3.694822225952521e-13</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9404,7 +9404,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9644,19 +9644,19 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>209.1187564935606</v>
       </c>
       <c r="O23" t="n">
-        <v>277.2206841544153</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9881,22 +9881,22 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>314.2281483842683</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>67.24850425836453</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10118,22 +10118,22 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>302.0615393034207</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>304.4470470912921</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10355,13 +10355,13 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>287.0017854473915</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>274.8351763665431</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10601,10 +10601,10 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>277.2206841544135</v>
       </c>
       <c r="Q35" t="n">
-        <v>167.7369666428369</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10823,7 +10823,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>21.13839585591376</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10838,13 +10838,13 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>277.2206841544144</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,16 +11057,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>62.52018570663847</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11075,10 +11075,10 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>78.40458911672786</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11297,7 +11297,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>21.13839585591376</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>21.13839585591461</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23033,7 +23033,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>8.325488839719375</v>
+        <v>8.325488839719386</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23255,13 +23255,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>229.8024706380109</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>310.3409250393603</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>217.4761001537101</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23306,19 +23306,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>64.84564520685313</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>159.5758535582974</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>206.6530553775793</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>304.8988521360903</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>62.77330410454431</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>62.77330410454297</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>338.3917250821579</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>366.5796090721309</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23543,22 +23543,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>64.84564520685325</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>159.5758535582976</v>
       </c>
       <c r="U14" t="n">
-        <v>83.01574187564741</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>155.7953432176715</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>325.3889840971464</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23665,7 +23665,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>18.18326801581856</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>44.59003608872463</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>62.77330410454577</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23732,10 +23732,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>318.297755152415</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>79.47030147120594</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23783,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>52.37361334329762</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23795,10 +23795,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y17" t="n">
-        <v>339.262802037461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23966,19 +23966,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>135.9936050211892</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>359.9009091231189</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24017,16 +24017,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T20" t="n">
-        <v>69.25613955851185</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V20" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24607,7 +24607,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>45.4415155616251</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>45.44151556162684</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24835,13 +24835,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>45.44151556162508</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>1.578459630568207</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>43.86305593105719</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25919,7 +25919,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>-1.240013155811212e-13</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>980049.6667447968</v>
+        <v>980049.6667447973</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>845248.3938431654</v>
+        <v>845248.3938431652</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>850133.270354012</v>
+        <v>850133.2703540121</v>
       </c>
     </row>
     <row r="8">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>532529.6201660751</v>
+        <v>532529.620166075</v>
       </c>
       <c r="C2" t="n">
-        <v>532529.6201660752</v>
+        <v>532529.620166075</v>
       </c>
       <c r="D2" t="n">
-        <v>533246.389619217</v>
+        <v>533246.3896192168</v>
       </c>
       <c r="E2" t="n">
+        <v>494058.6384901698</v>
+      </c>
+      <c r="F2" t="n">
         <v>494058.6384901699</v>
       </c>
-      <c r="F2" t="n">
-        <v>494058.6384901698</v>
-      </c>
       <c r="G2" t="n">
-        <v>496945.1564283977</v>
+        <v>496945.1564283978</v>
       </c>
       <c r="H2" t="n">
-        <v>496945.1564283978</v>
+        <v>496945.1564283979</v>
       </c>
       <c r="I2" t="n">
-        <v>533677.150411784</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="J2" t="n">
-        <v>532968.2627690232</v>
+        <v>532968.2627690225</v>
       </c>
       <c r="K2" t="n">
-        <v>532968.2627690231</v>
+        <v>532968.2627690233</v>
       </c>
       <c r="L2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117842</v>
       </c>
       <c r="M2" t="n">
         <v>533677.1504117841</v>
       </c>
       <c r="N2" t="n">
-        <v>533677.1504117841</v>
+        <v>533677.1504117844</v>
       </c>
       <c r="O2" t="n">
+        <v>533677.150411784</v>
+      </c>
+      <c r="P2" t="n">
         <v>533677.1504117843</v>
-      </c>
-      <c r="P2" t="n">
-        <v>533677.1504117838</v>
       </c>
     </row>
     <row r="3">
@@ -26369,31 +26369,31 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>23695.46889351143</v>
+        <v>23695.46889350927</v>
       </c>
       <c r="E3" t="n">
-        <v>1136963.65990644</v>
+        <v>1136963.659906442</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2106.416029815881</v>
+        <v>2106.416029815989</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48646.25967902299</v>
+        <v>48646.25967902289</v>
       </c>
       <c r="J3" t="n">
-        <v>35747.93747342045</v>
+        <v>35747.93747342048</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>3631.247933497826</v>
+        <v>3631.247933497923</v>
       </c>
       <c r="M3" t="n">
         <v>205475.0301890555</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>33948.86136137626</v>
+        <v>33948.86136137613</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>425523.1391661036</v>
       </c>
       <c r="D4" t="n">
-        <v>418989.6393706223</v>
+        <v>418989.639370623</v>
       </c>
       <c r="E4" t="n">
-        <v>54454.50849961599</v>
+        <v>54454.50849961594</v>
       </c>
       <c r="F4" t="n">
-        <v>54454.50849961599</v>
+        <v>54454.50849961588</v>
       </c>
       <c r="G4" t="n">
-        <v>56995.6694835739</v>
+        <v>56995.66948357393</v>
       </c>
       <c r="H4" t="n">
-        <v>56995.6694835739</v>
+        <v>56995.66948357392</v>
       </c>
       <c r="I4" t="n">
         <v>78703.96570883348</v>
       </c>
       <c r="J4" t="n">
-        <v>77680.38024331046</v>
+        <v>77680.38024331044</v>
       </c>
       <c r="K4" t="n">
         <v>77680.38024331047</v>
       </c>
       <c r="L4" t="n">
-        <v>78703.96570883351</v>
+        <v>78703.96570883348</v>
       </c>
       <c r="M4" t="n">
-        <v>78703.96570883348</v>
+        <v>78703.96570883344</v>
       </c>
       <c r="N4" t="n">
-        <v>78703.96570883342</v>
+        <v>78703.96570883345</v>
       </c>
       <c r="O4" t="n">
-        <v>78703.96570883348</v>
+        <v>78703.96570883345</v>
       </c>
       <c r="P4" t="n">
-        <v>78703.96570883349</v>
+        <v>78703.96570883345</v>
       </c>
     </row>
     <row r="5">
@@ -26473,13 +26473,13 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>34594.46178984071</v>
+        <v>34594.46178984065</v>
       </c>
       <c r="E5" t="n">
-        <v>78034.13796026852</v>
+        <v>78034.13796026853</v>
       </c>
       <c r="F5" t="n">
-        <v>78034.13796026852</v>
+        <v>78034.1379602685</v>
       </c>
       <c r="G5" t="n">
         <v>78255.49332178176</v>
@@ -26488,7 +26488,7 @@
         <v>78255.49332178176</v>
       </c>
       <c r="I5" t="n">
-        <v>89377.94167480615</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="J5" t="n">
         <v>89635.76638926388</v>
@@ -26497,7 +26497,7 @@
         <v>89635.7663892639</v>
       </c>
       <c r="L5" t="n">
-        <v>89377.94167480613</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="M5" t="n">
         <v>89377.94167480612</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>73378.88099997156</v>
+        <v>73374.46742210333</v>
       </c>
       <c r="C6" t="n">
-        <v>73378.88099997162</v>
+        <v>73374.46742210328</v>
       </c>
       <c r="D6" t="n">
-        <v>55966.81956524251</v>
+        <v>55965.16279296475</v>
       </c>
       <c r="E6" t="n">
-        <v>-775393.6678761544</v>
+        <v>-775546.046768163</v>
       </c>
       <c r="F6" t="n">
-        <v>361569.9920302852</v>
+        <v>361417.6131382794</v>
       </c>
       <c r="G6" t="n">
-        <v>359587.5775932262</v>
+        <v>359446.3006932901</v>
       </c>
       <c r="H6" t="n">
-        <v>361693.9936230422</v>
+        <v>361552.7167231061</v>
       </c>
       <c r="I6" t="n">
-        <v>316948.9833491213</v>
+        <v>316948.9833491218</v>
       </c>
       <c r="J6" t="n">
-        <v>329904.1786630284</v>
+        <v>329901.452172094</v>
       </c>
       <c r="K6" t="n">
-        <v>365652.1161364487</v>
+        <v>365649.3896455152</v>
       </c>
       <c r="L6" t="n">
-        <v>361963.9950946469</v>
+        <v>361963.9950946467</v>
       </c>
       <c r="M6" t="n">
         <v>160120.212839089</v>
       </c>
       <c r="N6" t="n">
-        <v>365595.2430281445</v>
+        <v>365595.2430281449</v>
       </c>
       <c r="O6" t="n">
-        <v>331646.3816667685</v>
+        <v>331646.3816667683</v>
       </c>
       <c r="P6" t="n">
-        <v>365595.2430281442</v>
+        <v>365595.2430281448</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>44.34211658132269</v>
+        <v>44.34211658132264</v>
       </c>
       <c r="F2" t="n">
-        <v>44.34211658132269</v>
+        <v>44.34211658132258</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J2" t="n">
-        <v>45.06909673899014</v>
+        <v>45.06909673899008</v>
       </c>
       <c r="K2" t="n">
         <v>45.06909673899014</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>25.17422975892921</v>
+        <v>25.1742297589267</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26796,16 +26796,16 @@
         <v>6.876045741711437</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="I4" t="n">
         <v>1014.336461208615</v>
@@ -26820,7 +26820,7 @@
         <v>1014.336461208615</v>
       </c>
       <c r="M4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="N4" t="n">
         <v>1014.336461208615</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>44.34211658132269</v>
+        <v>44.34211658132264</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.633020037269851</v>
+        <v>2.633020037269986</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>42.43607670172029</v>
+        <v>42.43607670172015</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>4.539059916872283</v>
+        <v>4.539059916872404</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>42.43607670172032</v>
+        <v>42.43607670172016</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>25.17422975892921</v>
+        <v>25.1742297589267</v>
       </c>
       <c r="E3" t="n">
-        <v>1064.602470834369</v>
+        <v>1064.602470834372</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="E4" t="n">
-        <v>824.5254096605813</v>
+        <v>824.5254096605817</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>182.9350058063221</v>
+        <v>182.9350058063218</v>
       </c>
       <c r="J4" t="n">
-        <v>6.876045741710982</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>824.5254096605813</v>
+        <v>824.5254096605814</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>44.34211658132269</v>
+        <v>44.34211658132264</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>2.633020037269851</v>
+        <v>2.633020037269986</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>42.43607670172029</v>
+        <v>42.43607670172015</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="M4" t="n">
-        <v>824.5254096605813</v>
+        <v>824.5254096605817</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>338.4383575709686</v>
+        <v>338.4383575709687</v>
       </c>
       <c r="I8" t="n">
-        <v>206.5742634687733</v>
+        <v>199.6982177270622</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,16 +27898,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>143.5119291568508</v>
+        <v>140.8153249276853</v>
       </c>
       <c r="S8" t="n">
-        <v>206.71390773446</v>
+        <v>206.7139077344602</v>
       </c>
       <c r="T8" t="n">
-        <v>215.7767879801296</v>
+        <v>222.6528337218411</v>
       </c>
       <c r="U8" t="n">
-        <v>248.6409524439732</v>
+        <v>251.3375566731402</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27944,13 +27944,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>131.2329477306562</v>
+        <v>137.2893688199556</v>
       </c>
       <c r="H9" t="n">
-        <v>104.8364394954533</v>
+        <v>104.8364394954534</v>
       </c>
       <c r="I9" t="n">
-        <v>80.65626915114143</v>
+        <v>87.53231489285305</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,13 +27977,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>96.7958870161582</v>
+        <v>89.91984127444711</v>
       </c>
       <c r="S9" t="n">
-        <v>163.8013436354371</v>
+        <v>163.8013436354372</v>
       </c>
       <c r="T9" t="n">
-        <v>199.9464728726664</v>
+        <v>193.890051783367</v>
       </c>
       <c r="U9" t="n">
         <v>225.9378196899712</v>
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>160.3707753569164</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28023,19 +28023,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9455832064345</v>
+        <v>161.889162117135</v>
       </c>
       <c r="H10" t="n">
-        <v>155.767138357415</v>
+        <v>161.8235594467145</v>
       </c>
       <c r="I10" t="n">
-        <v>147.2092430864888</v>
+        <v>154.0852888282004</v>
       </c>
       <c r="J10" t="n">
-        <v>90.14967216855487</v>
+        <v>90.14967216855518</v>
       </c>
       <c r="K10" t="n">
-        <v>10.11923860353018</v>
+        <v>10.11923860353071</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.36073455809607</v>
+        <v>75.48468881638502</v>
       </c>
       <c r="R10" t="n">
-        <v>175.2522153052406</v>
+        <v>168.3761695635293</v>
       </c>
       <c r="S10" t="n">
         <v>223.2254669148761</v>
@@ -28087,25 +28087,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>44.34211658132269</v>
+        <v>44.34211658132264</v>
       </c>
       <c r="C11" t="n">
-        <v>44.34211658132269</v>
+        <v>44.34211658132264</v>
       </c>
       <c r="D11" t="n">
-        <v>44.34211658132269</v>
+        <v>44.34211658132264</v>
       </c>
       <c r="E11" t="n">
-        <v>44.34211658132269</v>
+        <v>44.34211658132264</v>
       </c>
       <c r="F11" t="n">
-        <v>44.34211658132269</v>
+        <v>44.34211658132264</v>
       </c>
       <c r="G11" t="n">
-        <v>44.34211658132269</v>
+        <v>44.34211658132264</v>
       </c>
       <c r="H11" t="n">
-        <v>44.34211658132269</v>
+        <v>44.34211658132264</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292595</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>44.34211658132269</v>
+        <v>44.34211658132264</v>
       </c>
       <c r="T11" t="n">
-        <v>44.34211658132269</v>
+        <v>44.34211658132264</v>
       </c>
       <c r="U11" t="n">
-        <v>44.34211658132269</v>
+        <v>44.34211658132264</v>
       </c>
       <c r="V11" t="n">
-        <v>44.34211658132269</v>
+        <v>44.34211658132264</v>
       </c>
       <c r="W11" t="n">
-        <v>44.34211658132269</v>
+        <v>44.34211658132264</v>
       </c>
       <c r="X11" t="n">
-        <v>44.34211658132269</v>
+        <v>44.34211658132264</v>
       </c>
       <c r="Y11" t="n">
-        <v>44.34211658132269</v>
+        <v>44.34211658132264</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>44.34211658132269</v>
+        <v>44.34211658132264</v>
       </c>
       <c r="C13" t="n">
-        <v>44.34211658132269</v>
+        <v>44.34211658132264</v>
       </c>
       <c r="D13" t="n">
-        <v>44.34211658132269</v>
+        <v>44.34211658132264</v>
       </c>
       <c r="E13" t="n">
-        <v>44.34211658132269</v>
+        <v>44.34211658132264</v>
       </c>
       <c r="F13" t="n">
-        <v>44.34211658132269</v>
+        <v>44.34211658132264</v>
       </c>
       <c r="G13" t="n">
-        <v>44.34211658132269</v>
+        <v>44.34211658132264</v>
       </c>
       <c r="H13" t="n">
-        <v>44.34211658132269</v>
+        <v>44.34211658132264</v>
       </c>
       <c r="I13" t="n">
-        <v>44.34211658132269</v>
+        <v>44.34211658132264</v>
       </c>
       <c r="J13" t="n">
-        <v>44.34211658132269</v>
+        <v>44.34211658132264</v>
       </c>
       <c r="K13" t="n">
-        <v>44.34211658132269</v>
+        <v>44.34211658132264</v>
       </c>
       <c r="L13" t="n">
-        <v>44.34211658132269</v>
+        <v>44.34211658132264</v>
       </c>
       <c r="M13" t="n">
-        <v>44.34211658132269</v>
+        <v>44.34211658132264</v>
       </c>
       <c r="N13" t="n">
-        <v>44.34211658132269</v>
+        <v>44.34211658132264</v>
       </c>
       <c r="O13" t="n">
-        <v>44.34211658132269</v>
+        <v>44.34211658132264</v>
       </c>
       <c r="P13" t="n">
-        <v>44.34211658132269</v>
+        <v>44.34211658132264</v>
       </c>
       <c r="Q13" t="n">
-        <v>44.34211658132269</v>
+        <v>44.34211658132264</v>
       </c>
       <c r="R13" t="n">
-        <v>44.34211658132269</v>
+        <v>44.34211658132264</v>
       </c>
       <c r="S13" t="n">
-        <v>44.34211658132269</v>
+        <v>44.34211658132264</v>
       </c>
       <c r="T13" t="n">
-        <v>44.34211658132269</v>
+        <v>44.34211658132264</v>
       </c>
       <c r="U13" t="n">
-        <v>44.34211658132269</v>
+        <v>44.34211658132264</v>
       </c>
       <c r="V13" t="n">
-        <v>44.34211658132269</v>
+        <v>44.34211658132264</v>
       </c>
       <c r="W13" t="n">
-        <v>44.34211658132269</v>
+        <v>44.34211658132264</v>
       </c>
       <c r="X13" t="n">
-        <v>44.34211658132269</v>
+        <v>44.34211658132264</v>
       </c>
       <c r="Y13" t="n">
-        <v>44.34211658132269</v>
+        <v>44.34211658132264</v>
       </c>
     </row>
     <row r="14">
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>44.34211658132269</v>
+        <v>44.34211658132258</v>
       </c>
       <c r="C14" t="n">
-        <v>44.34211658132269</v>
+        <v>44.34211658132258</v>
       </c>
       <c r="D14" t="n">
-        <v>44.34211658132269</v>
+        <v>44.34211658132258</v>
       </c>
       <c r="E14" t="n">
-        <v>44.34211658132269</v>
+        <v>44.34211658132258</v>
       </c>
       <c r="F14" t="n">
-        <v>44.34211658132269</v>
+        <v>44.34211658132258</v>
       </c>
       <c r="G14" t="n">
-        <v>44.34211658132269</v>
+        <v>44.34211658132258</v>
       </c>
       <c r="H14" t="n">
-        <v>44.34211658132269</v>
+        <v>44.34211658132258</v>
       </c>
       <c r="I14" t="n">
         <v>41.57692977292595</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>44.34211658132269</v>
+        <v>44.34211658132258</v>
       </c>
       <c r="T14" t="n">
-        <v>44.34211658132269</v>
+        <v>44.34211658132258</v>
       </c>
       <c r="U14" t="n">
-        <v>44.34211658132269</v>
+        <v>44.34211658132258</v>
       </c>
       <c r="V14" t="n">
-        <v>44.34211658132269</v>
+        <v>44.34211658132258</v>
       </c>
       <c r="W14" t="n">
-        <v>44.34211658132269</v>
+        <v>44.34211658132258</v>
       </c>
       <c r="X14" t="n">
-        <v>44.34211658132269</v>
+        <v>44.34211658132258</v>
       </c>
       <c r="Y14" t="n">
-        <v>44.34211658132269</v>
+        <v>44.34211658132258</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>44.34211658132269</v>
+        <v>44.34211658132258</v>
       </c>
       <c r="C16" t="n">
-        <v>44.34211658132269</v>
+        <v>44.34211658132258</v>
       </c>
       <c r="D16" t="n">
-        <v>44.34211658132269</v>
+        <v>44.34211658132258</v>
       </c>
       <c r="E16" t="n">
-        <v>44.34211658132269</v>
+        <v>44.34211658132258</v>
       </c>
       <c r="F16" t="n">
-        <v>44.34211658132269</v>
+        <v>44.34211658132258</v>
       </c>
       <c r="G16" t="n">
-        <v>44.34211658132269</v>
+        <v>44.34211658132258</v>
       </c>
       <c r="H16" t="n">
-        <v>44.34211658132269</v>
+        <v>44.34211658132258</v>
       </c>
       <c r="I16" t="n">
-        <v>44.34211658132269</v>
+        <v>44.34211658132258</v>
       </c>
       <c r="J16" t="n">
-        <v>44.34211658132269</v>
+        <v>44.34211658132258</v>
       </c>
       <c r="K16" t="n">
-        <v>44.34211658132269</v>
+        <v>44.34211658132258</v>
       </c>
       <c r="L16" t="n">
-        <v>44.34211658132269</v>
+        <v>44.34211658132258</v>
       </c>
       <c r="M16" t="n">
-        <v>44.34211658132269</v>
+        <v>44.34211658132258</v>
       </c>
       <c r="N16" t="n">
-        <v>44.34211658132269</v>
+        <v>44.34211658132258</v>
       </c>
       <c r="O16" t="n">
-        <v>44.34211658132269</v>
+        <v>44.34211658132258</v>
       </c>
       <c r="P16" t="n">
-        <v>44.34211658132269</v>
+        <v>44.34211658132258</v>
       </c>
       <c r="Q16" t="n">
-        <v>44.34211658132269</v>
+        <v>44.34211658132258</v>
       </c>
       <c r="R16" t="n">
-        <v>44.34211658132269</v>
+        <v>44.34211658132258</v>
       </c>
       <c r="S16" t="n">
-        <v>44.34211658132269</v>
+        <v>44.34211658132258</v>
       </c>
       <c r="T16" t="n">
-        <v>44.34211658132269</v>
+        <v>44.34211658132258</v>
       </c>
       <c r="U16" t="n">
-        <v>44.34211658132269</v>
+        <v>44.34211658132258</v>
       </c>
       <c r="V16" t="n">
-        <v>44.34211658132269</v>
+        <v>44.34211658132258</v>
       </c>
       <c r="W16" t="n">
-        <v>44.34211658132269</v>
+        <v>44.34211658132258</v>
       </c>
       <c r="X16" t="n">
-        <v>44.34211658132269</v>
+        <v>44.34211658132258</v>
       </c>
       <c r="Y16" t="n">
-        <v>44.34211658132269</v>
+        <v>44.34211658132258</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y17" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q19" t="n">
         <v>46.97513661859257</v>
       </c>
       <c r="R19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y19" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y20" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L22" t="n">
-        <v>46.97513661859267</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y22" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859233</v>
       </c>
       <c r="P25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>45.06909673899014</v>
+        <v>45.06909673899008</v>
       </c>
       <c r="C26" t="n">
-        <v>45.06909673899014</v>
+        <v>45.06909673899008</v>
       </c>
       <c r="D26" t="n">
-        <v>45.06909673899014</v>
+        <v>45.06909673899008</v>
       </c>
       <c r="E26" t="n">
-        <v>45.06909673899014</v>
+        <v>45.06909673899008</v>
       </c>
       <c r="F26" t="n">
-        <v>45.06909673899014</v>
+        <v>45.06909673899008</v>
       </c>
       <c r="G26" t="n">
-        <v>45.06909673899014</v>
+        <v>45.06909673899008</v>
       </c>
       <c r="H26" t="n">
-        <v>45.06909673899014</v>
+        <v>45.06909673899008</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>45.06909673899014</v>
+        <v>45.06909673899008</v>
       </c>
       <c r="T26" t="n">
-        <v>45.06909673899014</v>
+        <v>45.06909673899008</v>
       </c>
       <c r="U26" t="n">
-        <v>45.06909673899014</v>
+        <v>45.06909673899008</v>
       </c>
       <c r="V26" t="n">
-        <v>45.06909673899014</v>
+        <v>45.06909673899008</v>
       </c>
       <c r="W26" t="n">
-        <v>45.06909673899014</v>
+        <v>45.06909673899008</v>
       </c>
       <c r="X26" t="n">
-        <v>45.06909673899014</v>
+        <v>45.06909673899008</v>
       </c>
       <c r="Y26" t="n">
-        <v>45.06909673899014</v>
+        <v>45.06909673899008</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>45.06909673899014</v>
+        <v>45.06909673899008</v>
       </c>
       <c r="C28" t="n">
-        <v>45.06909673899014</v>
+        <v>45.06909673899008</v>
       </c>
       <c r="D28" t="n">
-        <v>45.06909673899014</v>
+        <v>45.06909673899008</v>
       </c>
       <c r="E28" t="n">
-        <v>45.06909673899014</v>
+        <v>45.06909673899008</v>
       </c>
       <c r="F28" t="n">
-        <v>45.06909673899014</v>
+        <v>45.06909673899008</v>
       </c>
       <c r="G28" t="n">
-        <v>45.06909673899014</v>
+        <v>45.06909673899008</v>
       </c>
       <c r="H28" t="n">
-        <v>45.06909673899014</v>
+        <v>45.06909673899008</v>
       </c>
       <c r="I28" t="n">
-        <v>45.06909673899014</v>
+        <v>45.06909673899008</v>
       </c>
       <c r="J28" t="n">
-        <v>45.06909673899014</v>
+        <v>45.06909673899008</v>
       </c>
       <c r="K28" t="n">
-        <v>45.06909673899014</v>
+        <v>45.06909673899008</v>
       </c>
       <c r="L28" t="n">
-        <v>45.06909673899014</v>
+        <v>45.06909673899008</v>
       </c>
       <c r="M28" t="n">
-        <v>45.06909673899014</v>
+        <v>45.06909673899008</v>
       </c>
       <c r="N28" t="n">
-        <v>45.06909673899014</v>
+        <v>45.06909673899008</v>
       </c>
       <c r="O28" t="n">
-        <v>45.06909673899014</v>
+        <v>45.06909673899008</v>
       </c>
       <c r="P28" t="n">
-        <v>45.06909673899014</v>
+        <v>45.06909673899008</v>
       </c>
       <c r="Q28" t="n">
-        <v>45.06909673899014</v>
+        <v>45.06909673899008</v>
       </c>
       <c r="R28" t="n">
-        <v>45.06909673899014</v>
+        <v>45.06909673899008</v>
       </c>
       <c r="S28" t="n">
-        <v>45.06909673899014</v>
+        <v>45.06909673899008</v>
       </c>
       <c r="T28" t="n">
-        <v>45.06909673899014</v>
+        <v>45.06909673899008</v>
       </c>
       <c r="U28" t="n">
-        <v>45.06909673899014</v>
+        <v>45.06909673899008</v>
       </c>
       <c r="V28" t="n">
-        <v>45.06909673899014</v>
+        <v>45.06909673899008</v>
       </c>
       <c r="W28" t="n">
-        <v>45.06909673899014</v>
+        <v>45.06909673899008</v>
       </c>
       <c r="X28" t="n">
-        <v>45.06909673899014</v>
+        <v>45.06909673899008</v>
       </c>
       <c r="Y28" t="n">
-        <v>45.06909673899014</v>
+        <v>45.06909673899008</v>
       </c>
     </row>
     <row r="29">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859222</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C38" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D38" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E38" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F38" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G38" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H38" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T38" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U38" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V38" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W38" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X38" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y38" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859369</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C41" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D41" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E41" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F41" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G41" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H41" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T41" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U41" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V41" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W41" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X41" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y41" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.9751366185925</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859358</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.101202933704238</v>
+        <v>0.1012029337042279</v>
       </c>
       <c r="H8" t="n">
-        <v>1.036444544798527</v>
+        <v>1.036444544798424</v>
       </c>
       <c r="I8" t="n">
-        <v>3.901626101632638</v>
+        <v>3.901626101632248</v>
       </c>
       <c r="J8" t="n">
-        <v>8.589472494480075</v>
+        <v>8.589472494479217</v>
       </c>
       <c r="K8" t="n">
-        <v>12.87339267818047</v>
+        <v>12.87339267817918</v>
       </c>
       <c r="L8" t="n">
-        <v>15.97058196053155</v>
+        <v>15.97058196052995</v>
       </c>
       <c r="M8" t="n">
-        <v>17.77034963279429</v>
+        <v>17.77034963279251</v>
       </c>
       <c r="N8" t="n">
-        <v>18.05789246818146</v>
+        <v>18.05789246817965</v>
       </c>
       <c r="O8" t="n">
-        <v>17.05155579615994</v>
+        <v>17.05155579615824</v>
       </c>
       <c r="P8" t="n">
-        <v>14.55310837033656</v>
+        <v>14.55310837033511</v>
       </c>
       <c r="Q8" t="n">
-        <v>10.92877830705354</v>
+        <v>10.92877830705244</v>
       </c>
       <c r="R8" t="n">
-        <v>6.357188784298844</v>
+        <v>6.357188784298209</v>
       </c>
       <c r="S8" t="n">
-        <v>2.306161851785325</v>
+        <v>2.306161851785095</v>
       </c>
       <c r="T8" t="n">
-        <v>0.4430158422903019</v>
+        <v>0.4430158422902577</v>
       </c>
       <c r="U8" t="n">
-        <v>0.008096234696339036</v>
+        <v>0.008096234696338227</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0541483432550553</v>
+        <v>0.05414834325504989</v>
       </c>
       <c r="H9" t="n">
-        <v>0.5229589993317183</v>
+        <v>0.5229589993316661</v>
       </c>
       <c r="I9" t="n">
-        <v>1.864317958562211</v>
+        <v>1.864317958562025</v>
       </c>
       <c r="J9" t="n">
-        <v>5.115830973934852</v>
+        <v>5.115830973934341</v>
       </c>
       <c r="K9" t="n">
-        <v>8.743769972023557</v>
+        <v>8.743769972022683</v>
       </c>
       <c r="L9" t="n">
-        <v>11.75707777562067</v>
+        <v>11.75707777561949</v>
       </c>
       <c r="M9" t="n">
-        <v>13.71995521861642</v>
+        <v>13.71995521861505</v>
       </c>
       <c r="N9" t="n">
-        <v>14.0830816082523</v>
+        <v>14.08308160825089</v>
       </c>
       <c r="O9" t="n">
-        <v>12.88326831823239</v>
+        <v>12.8832683182311</v>
       </c>
       <c r="P9" t="n">
-        <v>10.33995863437981</v>
+        <v>10.33995863437878</v>
       </c>
       <c r="Q9" t="n">
-        <v>6.911988517961094</v>
+        <v>6.911988517960403</v>
       </c>
       <c r="R9" t="n">
-        <v>3.361947136484925</v>
+        <v>3.36194713648459</v>
       </c>
       <c r="S9" t="n">
-        <v>1.005781726689294</v>
+        <v>1.005781726689194</v>
       </c>
       <c r="T9" t="n">
-        <v>0.2182558221552447</v>
+        <v>0.2182558221552229</v>
       </c>
       <c r="U9" t="n">
-        <v>0.00356239100362206</v>
+        <v>0.003562391003621704</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04539615202429858</v>
+        <v>0.04539615202429404</v>
       </c>
       <c r="H10" t="n">
-        <v>0.4036130607251276</v>
+        <v>0.4036130607250873</v>
       </c>
       <c r="I10" t="n">
-        <v>1.365186099057998</v>
+        <v>1.365186099057861</v>
       </c>
       <c r="J10" t="n">
-        <v>3.209507948117909</v>
+        <v>3.209507948117589</v>
       </c>
       <c r="K10" t="n">
-        <v>5.274207480641234</v>
+        <v>5.274207480640706</v>
       </c>
       <c r="L10" t="n">
-        <v>6.74916972913981</v>
+        <v>6.749169729139136</v>
       </c>
       <c r="M10" t="n">
-        <v>7.116053175954367</v>
+        <v>7.116053175953655</v>
       </c>
       <c r="N10" t="n">
-        <v>6.946849336591077</v>
+        <v>6.946849336590383</v>
       </c>
       <c r="O10" t="n">
-        <v>6.416539742489042</v>
+        <v>6.416539742488401</v>
       </c>
       <c r="P10" t="n">
-        <v>5.490458241193346</v>
+        <v>5.490458241192798</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.801308693598311</v>
+        <v>3.801308693597932</v>
       </c>
       <c r="R10" t="n">
-        <v>2.041176071928916</v>
+        <v>2.041176071928712</v>
       </c>
       <c r="S10" t="n">
-        <v>0.791131122096185</v>
+        <v>0.7911311220961059</v>
       </c>
       <c r="T10" t="n">
-        <v>0.1939653768310939</v>
+        <v>0.1939653768310745</v>
       </c>
       <c r="U10" t="n">
-        <v>0.002476153746779925</v>
+        <v>0.002476153746779678</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32081,13 +32081,13 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
         <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
         <v>557.708647897025</v>
@@ -32312,7 +32312,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
@@ -32333,7 +32333,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
@@ -32555,7 +32555,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
         <v>593.9283018233475</v>
@@ -32570,7 +32570,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -32786,7 +32786,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
@@ -32804,7 +32804,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q24" t="n">
         <v>299.2156706987487</v>
@@ -33029,13 +33029,13 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138793</v>
       </c>
       <c r="M27" t="n">
         <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837919</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
         <v>557.708647897025</v>
@@ -33260,13 +33260,13 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026435</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138793</v>
       </c>
       <c r="M30" t="n">
         <v>593.9283018233475</v>
@@ -33497,13 +33497,13 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M33" t="n">
         <v>593.9283018233475</v>
@@ -33740,7 +33740,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M36" t="n">
         <v>593.9283018233475</v>
@@ -33989,10 +33989,10 @@
         <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34211,7 +34211,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
         <v>508.9565619138796</v>
@@ -34229,7 +34229,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34448,7 +34448,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
         <v>508.9565619138796</v>
@@ -34466,7 +34466,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -35173,25 +35173,25 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="M8" t="n">
-        <v>6.598225711743296</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>6.876045741711437</v>
+        <v>5.660146619235656</v>
       </c>
       <c r="O8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="P8" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>0.938079092507639</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>4.369239647676484</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>2.228986064066812</v>
+      </c>
+      <c r="O9" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="L9" t="n">
+      <c r="P9" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="M9" t="n">
+      <c r="Q9" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="N9" t="n">
-        <v>6.598225711743297</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35343,10 +35343,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="O10" t="n">
-        <v>6.598225711743297</v>
+        <v>3.82920820565701</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.769017506086286</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35565,16 +35565,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>89.92053319438895</v>
+        <v>89.92053319438887</v>
       </c>
       <c r="K13" t="n">
-        <v>250.3897761256423</v>
+        <v>250.3897761256422</v>
       </c>
       <c r="L13" t="n">
         <v>364.0994887515208</v>
       </c>
       <c r="M13" t="n">
-        <v>391.9754959748066</v>
+        <v>391.9754959748064</v>
       </c>
       <c r="N13" t="n">
         <v>389.1990627488627</v>
@@ -35583,7 +35583,7 @@
         <v>346.6952468039624</v>
       </c>
       <c r="P13" t="n">
-        <v>279.2991877264331</v>
+        <v>279.299187726433</v>
       </c>
       <c r="Q13" t="n">
         <v>122.7363551192163</v>
@@ -35729,13 +35729,13 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
         <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
         <v>415.1124034525806</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>89.92053319438892</v>
+        <v>89.92053319438881</v>
       </c>
       <c r="K16" t="n">
-        <v>250.3897761256423</v>
+        <v>250.3897761256422</v>
       </c>
       <c r="L16" t="n">
-        <v>364.0994887515208</v>
+        <v>364.0994887515207</v>
       </c>
       <c r="M16" t="n">
-        <v>391.9754959748065</v>
+        <v>391.9754959748064</v>
       </c>
       <c r="N16" t="n">
         <v>389.1990627488627</v>
       </c>
       <c r="O16" t="n">
-        <v>346.6952468039624</v>
+        <v>346.6952468039623</v>
       </c>
       <c r="P16" t="n">
-        <v>279.2991877264331</v>
+        <v>279.299187726433</v>
       </c>
       <c r="Q16" t="n">
-        <v>122.7363551192163</v>
+        <v>122.7363551192162</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687129</v>
       </c>
       <c r="K17" t="n">
         <v>337.1912865554005</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597692</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
@@ -35981,7 +35981,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K19" t="n">
         <v>253.0227961629121</v>
@@ -36051,7 +36051,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N19" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O19" t="n">
         <v>349.3282668412323</v>
@@ -36124,7 +36124,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923321</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
         <v>538.9211158302268</v>
@@ -36203,7 +36203,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
         <v>451.7942679013292</v>
@@ -36218,7 +36218,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,19 +36276,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K22" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7325087887908</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M22" t="n">
         <v>394.6085160120764</v>
       </c>
       <c r="N22" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O22" t="n">
         <v>349.3282668412323</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
         <v>337.1912865554005</v>
@@ -36364,19 +36364,19 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>761.4205919064721</v>
       </c>
       <c r="O23" t="n">
-        <v>785.2736850426344</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
         <v>125.3296184152072</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597719</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
@@ -36452,7 +36452,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q24" t="n">
         <v>159.2338966127272</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K25" t="n">
         <v>253.0227961629121</v>
@@ -36525,10 +36525,10 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N25" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O25" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412321</v>
       </c>
       <c r="P25" t="n">
         <v>281.932207763703</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
         <v>337.1912865554005</v>
@@ -36601,22 +36601,22 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>822.2811492724874</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>318.042809062084</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,13 +36677,13 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340051</v>
       </c>
       <c r="M27" t="n">
         <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004586</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
         <v>415.1124034525806</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>90.64751335205636</v>
+        <v>90.64751335205631</v>
       </c>
       <c r="K28" t="n">
         <v>251.1167562833097</v>
@@ -36759,19 +36759,19 @@
         <v>364.8264689091882</v>
       </c>
       <c r="M28" t="n">
-        <v>392.702476132474</v>
+        <v>392.7024761324739</v>
       </c>
       <c r="N28" t="n">
-        <v>389.9260429065302</v>
+        <v>389.9260429065301</v>
       </c>
       <c r="O28" t="n">
         <v>347.4222269616299</v>
       </c>
       <c r="P28" t="n">
-        <v>280.0261678841006</v>
+        <v>280.0261678841005</v>
       </c>
       <c r="Q28" t="n">
-        <v>123.4633352768838</v>
+        <v>123.4633352768837</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
         <v>337.1912865554005</v>
@@ -36838,22 +36838,22 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>854.3633747163321</v>
       </c>
       <c r="O29" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>703.2090333106639</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,13 +36908,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597675</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340051</v>
       </c>
       <c r="M30" t="n">
         <v>451.7942679013292</v>
@@ -36993,7 +36993,7 @@
         <v>251.1167562833097</v>
       </c>
       <c r="L31" t="n">
-        <v>364.8264689091882</v>
+        <v>364.8264689091883</v>
       </c>
       <c r="M31" t="n">
         <v>392.702476132474</v>
@@ -37075,13 +37075,13 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>825.9229012776183</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>782.8881772547622</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
         <v>398.7619862193719</v>
@@ -37145,13 +37145,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359772</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M33" t="n">
         <v>451.7942679013292</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K34" t="n">
         <v>253.0227961629121</v>
@@ -37321,10 +37321,10 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>675.9826703737854</v>
       </c>
       <c r="Q35" t="n">
-        <v>418.5312714465564</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
         <v>125.3296184152072</v>
@@ -37388,7 +37388,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M36" t="n">
         <v>451.7942679013292</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K37" t="n">
-        <v>253.0227961629118</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L37" t="n">
         <v>366.7325087887907</v>
@@ -37473,7 +37473,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N37" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O37" t="n">
         <v>349.3282668412323</v>
@@ -37543,7 +37543,7 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>358.3296824113143</v>
       </c>
       <c r="L38" t="n">
         <v>455.5901143923322</v>
@@ -37558,13 +37558,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>675.9826703737863</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37637,10 +37637,10 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,16 +37698,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165871</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K40" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M40" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N40" t="n">
         <v>391.8320827861326</v>
@@ -37716,10 +37716,10 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P40" t="n">
-        <v>281.9322077637041</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3693751564861</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,16 +37777,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>253.307186675351</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
         <v>552.3018354129115</v>
@@ -37795,10 +37795,10 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636242</v>
+        <v>329.1988939204473</v>
       </c>
       <c r="R41" t="n">
         <v>59.61319854222478</v>
@@ -37859,7 +37859,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
         <v>370.4021821340054</v>
@@ -37877,7 +37877,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,16 +37935,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165874</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K43" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7325087887917</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M43" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N43" t="n">
         <v>391.8320827861326</v>
@@ -37953,7 +37953,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P43" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q43" t="n">
         <v>125.3693751564862</v>
@@ -38017,7 +38017,7 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>358.3296824113143</v>
       </c>
       <c r="L44" t="n">
         <v>455.5901143923322</v>
@@ -38038,7 +38038,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>80.75159439813939</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
         <v>370.4021821340054</v>
@@ -38114,7 +38114,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K46" t="n">
         <v>253.0227961629121</v>
